--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23.218685007125998</v>
+        <v>23.218685018045448</v>
       </c>
       <c r="C2">
-        <v>21.943197669278106</v>
+        <v>21.943197680310789</v>
       </c>
       <c r="D2">
-        <v>17.374393479756691</v>
+        <v>17.374393506679894</v>
       </c>
       <c r="E2">
-        <v>10.520410326390561</v>
+        <v>10.520410335385407</v>
       </c>
       <c r="F2">
-        <v>19.168197756982181</v>
+        <v>19.168197764263539</v>
       </c>
       <c r="G2">
-        <v>31.307225450235137</v>
+        <v>31.307225447104202</v>
       </c>
       <c r="H2">
-        <v>13.789442837988531</v>
+        <v>13.789442853055391</v>
       </c>
       <c r="I2">
-        <v>22.697865088770129</v>
+        <v>22.697865078961968</v>
       </c>
       <c r="J2">
-        <v>22.369603965581689</v>
+        <v>22.369603987292805</v>
       </c>
       <c r="K2">
-        <v>25.758541944050876</v>
+        <v>25.758541934277275</v>
       </c>
       <c r="L2">
-        <v>34.266386620221624</v>
+        <v>34.266386628963915</v>
       </c>
       <c r="N2">
-        <v>23.153629106346102</v>
+        <v>23.153629106884807</v>
       </c>
       <c r="O2">
-        <v>12.653084692904883</v>
+        <v>12.653084719101344</v>
       </c>
       <c r="P2">
-        <v>19.264781745890105</v>
+        <v>19.264781755060312</v>
       </c>
       <c r="Q2">
-        <v>40.811309747383518</v>
+        <v>40.811309781436989</v>
       </c>
       <c r="S2">
-        <v>17.237835892858811</v>
+        <v>17.237836053720571</v>
       </c>
       <c r="V2">
-        <v>22.329982097011907</v>
+        <v>22.329982130143605</v>
       </c>
       <c r="W2">
-        <v>27.150396865571395</v>
+        <v>27.150396884349277</v>
       </c>
       <c r="X2">
-        <v>26.126586160520503</v>
+        <v>26.126586180473851</v>
       </c>
       <c r="AA2">
-        <v>15.092719582543396</v>
+        <v>15.09271961508091</v>
       </c>
       <c r="AB2">
-        <v>17.98191039070457</v>
+        <v>17.981910450289433</v>
       </c>
       <c r="AC2">
-        <v>25.092844984069473</v>
+        <v>25.092844982775773</v>
       </c>
       <c r="AD2">
-        <v>6.8182190180292537</v>
+        <v>6.8182190851180167</v>
       </c>
       <c r="AE2">
-        <v>20.334966539369589</v>
+        <v>20.334966541603649</v>
       </c>
       <c r="AF2">
-        <v>19.081731148907863</v>
+        <v>19.081731154427246</v>
       </c>
       <c r="AG2">
-        <v>12.963167922032142</v>
+        <v>12.96316795245616</v>
       </c>
       <c r="AH2">
-        <v>15.455453032792207</v>
+        <v>15.455453078282687</v>
       </c>
       <c r="AI2">
-        <v>21.111547810552565</v>
+        <v>21.111547876884515</v>
       </c>
       <c r="AJ2">
-        <v>17.133376935532681</v>
+        <v>17.133376947566433</v>
       </c>
       <c r="AK2">
-        <v>21.199309074032215</v>
+        <v>21.199309103204598</v>
       </c>
       <c r="AL2">
-        <v>34.540025648560857</v>
+        <v>34.540025679112318</v>
       </c>
       <c r="AM2">
-        <v>15.025160299584115</v>
+        <v>15.025160356548326</v>
       </c>
       <c r="AN2">
-        <v>16.921156904659483</v>
+        <v>16.921156940213109</v>
       </c>
       <c r="AO2">
-        <v>11.075768182081731</v>
+        <v>11.07576823409704</v>
       </c>
       <c r="AQ2">
-        <v>26.984432949536995</v>
+        <v>26.984432998417276</v>
       </c>
       <c r="AR2">
-        <v>15.57582249769365</v>
+        <v>15.575822479675594</v>
       </c>
       <c r="AS2">
-        <v>12.872497081478173</v>
+        <v>12.872497138491042</v>
       </c>
       <c r="AU2">
-        <v>14.082318689659587</v>
+        <v>14.082318717380303</v>
       </c>
       <c r="AV2">
-        <v>15.145211129308564</v>
+        <v>15.145211194958506</v>
       </c>
       <c r="AW2">
-        <v>20.624466191220165</v>
+        <v>20.624466231323083</v>
       </c>
       <c r="AX2">
-        <v>12.708926717011252</v>
+        <v>12.70892674260017</v>
       </c>
       <c r="AY2">
-        <v>7.7319843883863086</v>
+        <v>7.7319844360665684</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>23.727145091518992</v>
+        <v>23.72714512013988</v>
       </c>
       <c r="C3">
-        <v>21.439511923974578</v>
+        <v>21.439511955918363</v>
       </c>
       <c r="E3">
-        <v>14.514206105570167</v>
+        <v>14.514206121385371</v>
       </c>
       <c r="F3">
-        <v>18.297567871692706</v>
+        <v>18.297567892282814</v>
       </c>
       <c r="G3">
-        <v>16.794110879103016</v>
+        <v>16.794110898084284</v>
       </c>
       <c r="H3">
-        <v>28.852664249870713</v>
+        <v>28.852664258557411</v>
       </c>
       <c r="J3">
-        <v>17.537177602985082</v>
+        <v>17.537177657410211</v>
       </c>
       <c r="K3">
-        <v>-2.7712117007827715</v>
+        <v>-2.7712116825778139</v>
       </c>
       <c r="L3">
-        <v>19.21308987319577</v>
+        <v>19.213089909152814</v>
       </c>
       <c r="M3">
-        <v>30.682498424816345</v>
+        <v>30.682625149272042</v>
       </c>
       <c r="N3">
-        <v>22.555286846552633</v>
+        <v>22.555286873196565</v>
       </c>
       <c r="P3">
-        <v>16.8123083078371</v>
+        <v>16.812308364168928</v>
       </c>
       <c r="Q3">
-        <v>20.899985032826464</v>
+        <v>20.899985057773677</v>
       </c>
       <c r="R3">
-        <v>30.612908246226027</v>
+        <v>30.612908304832558</v>
       </c>
       <c r="W3">
-        <v>22.086328051896032</v>
+        <v>22.08632809866873</v>
       </c>
       <c r="AA3">
-        <v>13.342932971823871</v>
+        <v>13.34293301460724</v>
       </c>
       <c r="AB3">
-        <v>13.45152922064301</v>
+        <v>13.451529256739491</v>
       </c>
       <c r="AC3">
-        <v>16.427142540215357</v>
+        <v>16.427142549066673</v>
       </c>
       <c r="AD3">
-        <v>12.365173107525152</v>
+        <v>12.365173134014981</v>
       </c>
       <c r="AE3">
-        <v>11.689256162023014</v>
+        <v>11.689256171375234</v>
       </c>
       <c r="AF3">
-        <v>20.765548258201306</v>
+        <v>20.765548284604847</v>
       </c>
       <c r="AG3">
-        <v>18.151521893458778</v>
+        <v>18.151521930462138</v>
       </c>
       <c r="AH3">
-        <v>23.519983224013572</v>
+        <v>23.519983268295505</v>
       </c>
       <c r="AI3">
-        <v>-3.163811360797979</v>
+        <v>-3.1638113559219505</v>
       </c>
       <c r="AJ3">
-        <v>14.308302671911008</v>
+        <v>14.308302709300676</v>
       </c>
       <c r="AK3">
-        <v>20.567981429828706</v>
+        <v>20.567981458231941</v>
       </c>
       <c r="AL3">
-        <v>20.145614819884884</v>
+        <v>20.145614872828048</v>
       </c>
       <c r="AM3">
-        <v>15.166599620580598</v>
+        <v>15.166599691751969</v>
       </c>
       <c r="AN3">
-        <v>31.312282547141137</v>
+        <v>31.312282575212635</v>
       </c>
       <c r="AO3">
-        <v>14.478927821063053</v>
+        <v>14.478927843651036</v>
       </c>
       <c r="AP3">
-        <v>22.985795454937204</v>
+        <v>22.985795488968336</v>
       </c>
       <c r="AQ3">
-        <v>17.864429287307587</v>
+        <v>17.864429320684053</v>
       </c>
       <c r="AS3">
-        <v>21.330541560714209</v>
+        <v>21.330541570230878</v>
       </c>
       <c r="AT3">
-        <v>10.432624244338569</v>
+        <v>10.432624282435597</v>
       </c>
       <c r="AU3">
-        <v>20.045044806144745</v>
+        <v>20.04504481605295</v>
       </c>
       <c r="AV3">
-        <v>17.979943724040197</v>
+        <v>17.979943754040789</v>
       </c>
       <c r="AW3">
-        <v>22.400674052494367</v>
+        <v>22.400674084075774</v>
       </c>
       <c r="AX3">
-        <v>22.275405083407065</v>
+        <v>22.275405117841046</v>
       </c>
       <c r="AY3">
-        <v>5.1599113428528085</v>
+        <v>5.1599113861126398</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>23.218685018045448</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>21.943197680310789</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>17.374393506679894</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>10.520410335385407</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>19.168197764263539</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>31.307225447104202</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>13.789442853055391</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>22.697865078961968</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>22.369603987292805</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>25.758541934277275</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>34.266386628963915</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>23.153629106884807</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.653084719101344</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>19.264781755060312</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>40.811309781436989</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17.237836053720571</v>
+        <v>25.406870884379941</v>
       </c>
       <c r="V2">
         <v>22.329982130143605</v>
@@ -570,52 +465,55 @@
         <v>26.126586180473851</v>
       </c>
       <c r="AA2">
-        <v>15.09271961508091</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>17.981910450289433</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>25.092844982775773</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>6.8182190851180167</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>20.334966541603649</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>19.081731154427246</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>12.96316795245616</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>15.455453078282687</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>21.111547876884515</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>17.133376947566433</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>21.199309103204598</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>34.540025679112318</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>15.025160356548326</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>16.921156940213109</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>11.07576823409704</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>26.984432998417276</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>15.575822479675594</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>23.72714512013988</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>21.439511955918363</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14.514206121385371</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>18.297567892282814</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>16.794110898084284</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>28.852664258557411</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.537177657410211</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-2.7712116825778139</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>19.213089909152814</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>30.682625149272042</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>22.555286873196565</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>16.812308364168928</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>20.899985057773677</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>30.612908304832558</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>22.08632809866873</v>
       </c>
       <c r="AA3">
-        <v>13.34293301460724</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>13.451529256739491</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>16.427142549066673</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>12.365173134014981</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>11.689256171375234</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>20.765548284604847</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>18.151521930462138</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>23.519983268295505</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-3.1638113559219505</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>14.308302709300676</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>20.567981458231941</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>20.145614872828048</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>15.166599691751969</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>31.312282575212635</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>14.478927843651036</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>22.985795488968336</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>17.864429320684053</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>21.330541570230878</v>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,18 +512,6 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>23.218685007125998</v>
-      </c>
-      <c r="C2">
-        <v>24.328904679694631</v>
-      </c>
-      <c r="D2">
-        <v>17.374393479756691</v>
-      </c>
-      <c r="E2">
-        <v>10.520410326390561</v>
-      </c>
       <c r="F2">
         <v>19.168197756982181</v>
       </c>
@@ -648,14 +631,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>23.727145091518992</v>
-      </c>
       <c r="C3">
-        <v>21.439511923974578</v>
+        <v>30.612908304832558</v>
+      </c>
+      <c r="D3">
+        <v>30.483408351428295</v>
       </c>
       <c r="E3">
-        <v>14.514206105570167</v>
+        <v>16.963018195708059</v>
       </c>
       <c r="F3">
         <v>18.297567871692706</v>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23.218685007125998</v>
-      </c>
-      <c r="C2">
-        <v>24.328904679694631</v>
+        <v>24.099583937430452</v>
       </c>
       <c r="D2">
-        <v>17.374393479756691</v>
-      </c>
-      <c r="E2">
-        <v>10.520410326390561</v>
+        <v>15.025160356548326</v>
       </c>
       <c r="F2">
         <v>19.168197756982181</v>
@@ -637,13 +626,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>23.727145091518992</v>
-      </c>
-      <c r="C3">
-        <v>21.439511923974578</v>
+        <v>22.555286873196565</v>
+      </c>
+      <c r="D3">
+        <v>15.166599691751969</v>
       </c>
       <c r="E3">
-        <v>8.797217110826864</v>
+        <v>30.483408351428295</v>
       </c>
       <c r="F3">
         <v>18.297567871692706</v>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,112 +513,118 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>23.218685018045448</v>
+      </c>
+      <c r="C2">
+        <v>24.328904688352111</v>
+      </c>
+      <c r="D2">
+        <v>17.374393506679894</v>
+      </c>
+      <c r="E2">
+        <v>10.520410335385407</v>
+      </c>
+      <c r="F2">
+        <v>19.168197764263539</v>
+      </c>
+      <c r="G2">
+        <v>27.609155384781786</v>
+      </c>
+      <c r="H2">
+        <v>13.789442853055391</v>
+      </c>
+      <c r="I2">
+        <v>18.779466447918935</v>
+      </c>
+      <c r="J2">
+        <v>22.369603987292805</v>
+      </c>
+      <c r="K2">
+        <v>25.758541934277275</v>
+      </c>
+      <c r="L2">
+        <v>34.06096969237268</v>
+      </c>
+      <c r="N2">
         <v>24.099583937430452</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>17.904549597361438</v>
+      </c>
+      <c r="Q2">
+        <v>40.811309781436989</v>
+      </c>
+      <c r="V2">
+        <v>19.44172666050531</v>
+      </c>
+      <c r="W2">
+        <v>27.150396884349277</v>
+      </c>
+      <c r="X2">
+        <v>26.126586180473851</v>
+      </c>
+      <c r="AA2">
+        <v>15.09271961508091</v>
+      </c>
+      <c r="AB2">
+        <v>17.981910450289433</v>
+      </c>
+      <c r="AC2">
+        <v>25.092844982775773</v>
+      </c>
+      <c r="AD2">
+        <v>6.8182190851180167</v>
+      </c>
+      <c r="AE2">
+        <v>20.334966541603649</v>
+      </c>
+      <c r="AF2">
+        <v>19.081731154427246</v>
+      </c>
+      <c r="AG2">
+        <v>12.96316795245616</v>
+      </c>
+      <c r="AH2">
+        <v>15.455453078282687</v>
+      </c>
+      <c r="AI2">
+        <v>21.111547876884515</v>
+      </c>
+      <c r="AJ2">
+        <v>17.133376947566433</v>
+      </c>
+      <c r="AK2">
+        <v>21.199309103204598</v>
+      </c>
+      <c r="AL2">
+        <v>34.540025679112318</v>
+      </c>
+      <c r="AM2">
         <v>15.025160356548326</v>
       </c>
-      <c r="F2">
-        <v>19.168197756982181</v>
-      </c>
-      <c r="G2">
-        <v>27.609155386857879</v>
-      </c>
-      <c r="H2">
-        <v>13.789442837988531</v>
-      </c>
-      <c r="I2">
-        <v>18.779466463428435</v>
-      </c>
-      <c r="J2">
-        <v>22.369603965581689</v>
-      </c>
-      <c r="K2">
-        <v>25.758541944050876</v>
-      </c>
-      <c r="L2">
-        <v>34.060969675851823</v>
-      </c>
-      <c r="N2">
-        <v>24.0995839321169</v>
-      </c>
-      <c r="P2">
-        <v>17.904549595146875</v>
-      </c>
-      <c r="Q2">
-        <v>40.811309747383518</v>
-      </c>
-      <c r="V2">
-        <v>19.44172661237144</v>
-      </c>
-      <c r="W2">
-        <v>27.150396865571395</v>
-      </c>
-      <c r="X2">
-        <v>26.126586160520503</v>
-      </c>
-      <c r="AA2">
-        <v>15.092719582543396</v>
-      </c>
-      <c r="AB2">
-        <v>17.98191039070457</v>
-      </c>
-      <c r="AC2">
-        <v>25.092844984069473</v>
-      </c>
-      <c r="AD2">
-        <v>6.8182190180292537</v>
-      </c>
-      <c r="AE2">
-        <v>20.334966539369589</v>
-      </c>
-      <c r="AF2">
-        <v>19.081731148907863</v>
-      </c>
-      <c r="AG2">
-        <v>12.963167922032142</v>
-      </c>
-      <c r="AH2">
-        <v>15.455453032792207</v>
-      </c>
-      <c r="AI2">
-        <v>21.111547810552565</v>
-      </c>
-      <c r="AJ2">
-        <v>17.133376935532681</v>
-      </c>
-      <c r="AK2">
-        <v>21.199309074032215</v>
-      </c>
-      <c r="AL2">
-        <v>34.540025648560857</v>
-      </c>
-      <c r="AM2">
-        <v>15.025160299584115</v>
-      </c>
       <c r="AO2">
-        <v>11.075768182081731</v>
+        <v>11.07576823409704</v>
       </c>
       <c r="AR2">
-        <v>15.57582249769365</v>
+        <v>15.575822479675594</v>
       </c>
       <c r="AS2">
-        <v>12.872497081478173</v>
+        <v>12.872497138491042</v>
       </c>
       <c r="AU2">
-        <v>19.751654085330699</v>
+        <v>19.751654124427034</v>
       </c>
       <c r="AV2">
-        <v>15.145211129308564</v>
+        <v>15.145211194958506</v>
       </c>
       <c r="AW2">
-        <v>20.624466191220165</v>
+        <v>20.624466231323083</v>
       </c>
       <c r="AX2">
-        <v>12.708926717011252</v>
+        <v>12.70892674260017</v>
       </c>
       <c r="AY2">
-        <v>7.7319843883863086</v>
+        <v>7.7319844360665684</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -626,121 +632,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>23.72714512013988</v>
+      </c>
+      <c r="C3">
+        <v>21.439511955918363</v>
+      </c>
+      <c r="E3">
+        <v>8.7972171063797759</v>
+      </c>
+      <c r="F3">
+        <v>18.297567892282814</v>
+      </c>
+      <c r="G3">
+        <v>16.794110898084284</v>
+      </c>
+      <c r="H3">
+        <v>28.852664258557411</v>
+      </c>
+      <c r="J3">
+        <v>17.537177657410211</v>
+      </c>
+      <c r="K3">
+        <v>0.51030563625272407</v>
+      </c>
+      <c r="L3">
+        <v>19.213089909152814</v>
+      </c>
+      <c r="M3">
+        <v>34.454576691197246</v>
+      </c>
+      <c r="N3">
         <v>22.555286873196565</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>16.812308364168928</v>
+      </c>
+      <c r="Q3">
+        <v>20.899985057773677</v>
+      </c>
+      <c r="R3">
+        <v>30.612908304832558</v>
+      </c>
+      <c r="W3">
+        <v>22.08632809866873</v>
+      </c>
+      <c r="AA3">
+        <v>13.34293301460724</v>
+      </c>
+      <c r="AB3">
+        <v>13.451529256739491</v>
+      </c>
+      <c r="AC3">
+        <v>16.427142549066673</v>
+      </c>
+      <c r="AD3">
+        <v>12.365173134014981</v>
+      </c>
+      <c r="AE3">
+        <v>11.689256171375234</v>
+      </c>
+      <c r="AF3">
+        <v>20.765548284604847</v>
+      </c>
+      <c r="AG3">
+        <v>18.151521930462138</v>
+      </c>
+      <c r="AH3">
+        <v>23.519983268295505</v>
+      </c>
+      <c r="AI3">
+        <v>20.156749367473935</v>
+      </c>
+      <c r="AJ3">
+        <v>14.308302709300676</v>
+      </c>
+      <c r="AK3">
+        <v>20.567981458231941</v>
+      </c>
+      <c r="AL3">
+        <v>20.145614872828048</v>
+      </c>
+      <c r="AM3">
         <v>15.166599691751969</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>30.483408351428295</v>
       </c>
-      <c r="F3">
-        <v>18.297567871692706</v>
-      </c>
-      <c r="G3">
-        <v>16.794110879103016</v>
-      </c>
-      <c r="H3">
-        <v>28.852664249870713</v>
-      </c>
-      <c r="J3">
-        <v>17.537177602985082</v>
-      </c>
-      <c r="K3">
-        <v>0.51030561545417186</v>
-      </c>
-      <c r="L3">
-        <v>19.21308987319577</v>
-      </c>
-      <c r="M3">
-        <v>34.454695938235432</v>
-      </c>
-      <c r="N3">
-        <v>22.555286846552633</v>
-      </c>
-      <c r="P3">
-        <v>16.8123083078371</v>
-      </c>
-      <c r="Q3">
-        <v>20.899985032826464</v>
-      </c>
-      <c r="R3">
-        <v>30.612908246226027</v>
-      </c>
-      <c r="W3">
-        <v>22.086328051896032</v>
-      </c>
-      <c r="AA3">
-        <v>13.342932971823871</v>
-      </c>
-      <c r="AB3">
-        <v>13.45152922064301</v>
-      </c>
-      <c r="AC3">
-        <v>16.427142540215357</v>
-      </c>
-      <c r="AD3">
-        <v>12.365173107525152</v>
-      </c>
-      <c r="AE3">
-        <v>11.689256162023014</v>
-      </c>
-      <c r="AF3">
-        <v>20.765548258201306</v>
-      </c>
-      <c r="AG3">
-        <v>18.151521893458778</v>
-      </c>
-      <c r="AH3">
-        <v>23.519983224013572</v>
-      </c>
-      <c r="AI3">
-        <v>20.156749308695566</v>
-      </c>
-      <c r="AJ3">
-        <v>14.308302671911008</v>
-      </c>
-      <c r="AK3">
-        <v>20.567981429828706</v>
-      </c>
-      <c r="AL3">
-        <v>20.145614819884884</v>
-      </c>
-      <c r="AM3">
-        <v>15.166599620580598</v>
-      </c>
-      <c r="AN3">
-        <v>30.483408321227557</v>
-      </c>
       <c r="AO3">
-        <v>14.478927821063053</v>
+        <v>14.478927843651036</v>
       </c>
       <c r="AP3">
-        <v>22.985795454937204</v>
+        <v>22.985795488968336</v>
       </c>
       <c r="AQ3">
-        <v>16.963018181576672</v>
+        <v>16.963018195708059</v>
       </c>
       <c r="AS3">
-        <v>21.330541560714209</v>
+        <v>21.330541570230878</v>
       </c>
       <c r="AT3">
-        <v>10.432624244338569</v>
+        <v>10.432624282435597</v>
       </c>
       <c r="AU3">
-        <v>19.063041478719413</v>
+        <v>19.063041490533237</v>
       </c>
       <c r="AV3">
-        <v>17.979943724040197</v>
+        <v>17.979943754040789</v>
       </c>
       <c r="AW3">
-        <v>22.400674052494367</v>
+        <v>22.400674084075774</v>
       </c>
       <c r="AX3">
-        <v>22.275405083407065</v>
+        <v>22.275405117841046</v>
       </c>
       <c r="AY3">
-        <v>5.1599113428528085</v>
+        <v>5.1599113861126398</v>
       </c>
     </row>
   </sheetData>
